--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -1,158 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D48F23-CC27-47B5-A608-81902D5A3091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on ***** and now.</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on here and *****.</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are f***** on here and *****.</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge).</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability.</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>grudges</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following
-their every urge</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
-***** every urge</t>
-  </si>
-  <si>
-    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their
-cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their
-cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to *****
-cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they m***** without mind games</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they mean without m***** games</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -269,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -585,311 +459,436 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
         <v>1072</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" t="n">
         <v>1073</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on here and *****</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" t="n">
         <v>1074</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are f***** on here and *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
         <v>1075</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="44.4" customHeight="1">
+      <c r="A6" t="n">
         <v>1076</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" t="n">
         <v>1077</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="41.4" customHeight="1">
+      <c r="A8" t="n">
         <v>1078</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following
+their every urge</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="41.4" customHeight="1">
+      <c r="A9" t="n">
         <v>1079</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
+***** every urge</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="41.4" customHeight="1">
+      <c r="A10" t="n">
         <v>1080</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="41.4" customHeight="1">
+      <c r="A11" t="n">
         <v>1081</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>grudges</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="41.4" customHeight="1">
+      <c r="A12" t="n">
         <v>1082</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>1083</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they m***** without mind games</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" t="n">
         <v>1084</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they mean without m***** games</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -928,6 +927,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -1,41 +1,154 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E5738-80F1-455C-A0CC-F2C5FC7657B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on here and *****</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are f***** on here and *****</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
+***** every urge</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>grudges</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they m***** without mind games</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they mean without m***** games</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +265,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,436 +581,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1072</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>here</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1073</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on here and *****</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1074</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are f***** on here and *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1075</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="44.4" customHeight="1">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1076</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="41.4" customHeight="1">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1077</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="41.4" customHeight="1">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1078</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following
-their every urge</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>bad</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="41.4" customHeight="1">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1079</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
-***** every urge</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="41.4" customHeight="1">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1080</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="41.4" customHeight="1">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1081</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>grudges</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="41.4" customHeight="1">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1082</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
-      <c r="A13" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1083</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they m***** without mind games</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
-      <c r="A14" t="n">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1084</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they mean without m***** games</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -927,6 +924,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -1,154 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595E5738-80F1-455C-A0CC-F2C5FC7657B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on here and *****</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are f***** on here and *****</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
-***** every urge</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>grudges</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they m***** without mind games</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they mean without m***** games</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -265,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -581,311 +459,435 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
         <v>1072</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" t="n">
         <v>1073</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on here and *****</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" t="n">
         <v>1074</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are f***** on here and *****</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
         <v>1075</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="44.4" customHeight="1">
+      <c r="A6" t="n">
         <v>1076</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" t="n">
         <v>1077</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="41.4" customHeight="1">
+      <c r="A8" t="n">
         <v>1078</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="41.4" customHeight="1">
+      <c r="A9" t="n">
         <v>1079</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
+***** every urge</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="41.4" customHeight="1">
+      <c r="A10" t="n">
         <v>1080</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="41.4" customHeight="1">
+      <c r="A11" t="n">
         <v>1081</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>grudges</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="41.4" customHeight="1">
+      <c r="A12" t="n">
         <v>1082</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>1083</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they m***** without mind games</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" t="n">
         <v>1084</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they mean without m***** games</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -924,6 +926,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -1,41 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF22E2-388D-4DF9-83B2-258EDA1FD741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on here and *****</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>grudges</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they m***** without mind games</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they mean without m***** games</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are f***** on here and now</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -152,48 +264,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,435 +580,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
+    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
-      <c r="A2" t="n">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1072</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>here</t>
-        </is>
-      </c>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
-      <c r="A3" t="n">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1073</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on here and *****</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
-      </c>
-      <c r="F3" s="9" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
-      <c r="A4" t="n">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1074</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are f***** on here and *****</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1075</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="44.4" customHeight="1">
-      <c r="A6" t="n">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1076</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="41.4" customHeight="1">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1077</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="41.4" customHeight="1">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1078</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>bad</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="41.4" customHeight="1">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1079</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following
-***** every urge</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="41.4" customHeight="1">
-      <c r="A10" t="n">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1080</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="41.4" customHeight="1">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1081</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>grudges</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="41.4" customHeight="1">
-      <c r="A12" t="n">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1082</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
-      <c r="A13" t="n">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1083</v>
       </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they m***** without mind games</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
-      <c r="A14" t="n">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1084</v>
       </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they mean without m***** games</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -926,6 +923,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -1,153 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BF22E2-388D-4DF9-83B2-258EDA1FD741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on here and *****</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>grudges</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they m***** without mind games</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they mean without m***** games</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are f***** on here and now</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -264,57 +152,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -580,311 +459,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="5.796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.09765625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="2.19921875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="37.796875" style="5" customWidth="1"/>
-    <col min="5" max="6" width="23.69921875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" style="12" customWidth="1"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
+      <c r="A2" t="n">
         <v>1072</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="9"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
+      </c>
+      <c r="F2" s="9" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
+      <c r="A3" t="n">
         <v>1073</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="9"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on here and *****</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
+      </c>
+      <c r="F3" s="9" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
+      <c r="A4" t="n">
         <v>1074</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are f***** on here and now</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
+      <c r="A5" t="n">
         <v>1075</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="44.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>effort</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="44.4" customHeight="1">
+      <c r="A6" t="n">
         <v>1076</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="41.4" customHeight="1">
+      <c r="A7" t="n">
         <v>1077</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="41.4" customHeight="1">
+      <c r="A8" t="n">
         <v>1078</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="41.4" customHeight="1">
+      <c r="A9" t="n">
         <v>1079</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="41.4" customHeight="1">
+      <c r="A10" t="n">
         <v>1080</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="41.4" customHeight="1">
+      <c r="A11" t="n">
         <v>1081</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="41.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>grudges</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="41.4" customHeight="1">
+      <c r="A12" t="n">
         <v>1082</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
+      <c r="A13" t="n">
         <v>1083</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they m***** without mind games</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
+      <c r="A14" t="n">
         <v>1084</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they mean without m***** games</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">
@@ -923,6 +925,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,6 +11,113 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Right Answer</t>
+  </si>
+  <si>
+    <t>Wrong Answer</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>200817</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are focused on here and *****</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>Toddlers live in the present moment. They are f***** on here and now</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+  </si>
+  <si>
+    <t>grudges</t>
+  </si>
+  <si>
+    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they m***** without mind games</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>Toddlers are authentic. They say what they mean without m***** games</t>
+  </si>
+  <si>
+    <t>mind</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -149,51 +256,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -466,430 +573,312 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
+      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
+    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
+    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
+    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
+    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
+    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Id</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C1" s="7" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Question</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Right Answer</t>
-        </is>
-      </c>
-      <c r="F1" s="10" t="inlineStr">
-        <is>
-          <t>Wrong Answer</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>Date Created</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="2" spans="1:7">
       <c r="A2" t="n">
         <v>1072</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-        </is>
-      </c>
-      <c r="E2" s="9" t="inlineStr">
-        <is>
-          <t>here</t>
-        </is>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="9" t="n"/>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="27.6" customHeight="1">
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="3" spans="1:7">
       <c r="A3" t="n">
         <v>1073</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are focused on here and *****</t>
-        </is>
-      </c>
-      <c r="E3" s="9" t="inlineStr">
-        <is>
-          <t>now</t>
-        </is>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="27.6" customHeight="1">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="4" spans="1:7">
       <c r="A4" t="n">
         <v>1074</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>Toddlers live in the present moment. They are f***** on here and now</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>focused</t>
-        </is>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="27.6" customHeight="1">
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="5" spans="1:7">
       <c r="A5" t="n">
         <v>1075</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="inlineStr">
-        <is>
-          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-        </is>
-      </c>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>effort</t>
-        </is>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="44.4" customHeight="1">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="44.4" r="6" spans="1:7">
       <c r="A6" t="n">
         <v>1076</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-        </is>
-      </c>
-      <c r="E6" s="5" t="inlineStr">
-        <is>
-          <t>encourage</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="41.4" customHeight="1">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="7" spans="1:7">
       <c r="A7" t="n">
         <v>1077</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>take</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="41.4" customHeight="1">
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="8" spans="1:7">
       <c r="A8" t="n">
         <v>1078</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>bad</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="41.4" customHeight="1">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="9" spans="1:7">
       <c r="A9" t="n">
         <v>1079</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
-        </is>
-      </c>
-      <c r="E9" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="41.4" customHeight="1">
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="10" spans="1:7">
       <c r="A10" t="n">
         <v>1080</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="41.4" customHeight="1">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="11" spans="1:7">
       <c r="A11" t="n">
         <v>1081</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-        </is>
-      </c>
-      <c r="E11" s="5" t="inlineStr">
-        <is>
-          <t>grudges</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="41.4" customHeight="1">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="41.4" r="12" spans="1:7">
       <c r="A12" t="n">
         <v>1082</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-        </is>
-      </c>
-      <c r="E12" s="5" t="inlineStr">
-        <is>
-          <t>their</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="27.6" customHeight="1">
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="13" spans="1:7">
       <c r="A13" t="n">
         <v>1083</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they m***** without mind games</t>
-        </is>
-      </c>
-      <c r="E13" s="5" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="27.6" customHeight="1">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="27.6" r="14" spans="1:7">
       <c r="A14" t="n">
         <v>1084</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>Toddlers are authentic. They say what they mean without m***** games</t>
-        </is>
-      </c>
-      <c r="E14" s="5" t="inlineStr">
-        <is>
-          <t>mind</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>200817</t>
-        </is>
-      </c>
-    </row>
-    <row r="15"/>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="colorScale" priority="3">
+    <cfRule priority="3" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -901,7 +890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="colorScale" priority="2">
+    <cfRule priority="2" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -913,7 +902,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="1">
+    <cfRule priority="1" type="colorScale">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -924,7 +913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,113 +11,6 @@
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Right Answer</t>
-  </si>
-  <si>
-    <t>Wrong Answer</t>
-  </si>
-  <si>
-    <t>Date Created</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on ***** and now</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>200817</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are focused on here and *****</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>Toddlers live in the present moment. They are f***** on here and now</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
-  </si>
-  <si>
-    <t>their</t>
-  </si>
-  <si>
-    <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
-  </si>
-  <si>
-    <t>grudges</t>
-  </si>
-  <si>
-    <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they m***** without mind games</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>Toddlers are authentic. They say what they mean without m***** games</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -256,51 +149,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="2" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -573,312 +466,430 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150">
-      <pane activePane="bottomLeft" state="frozen" topLeftCell="A4" ySplit="1"/>
-      <selection activeCell="D10" pane="bottomLeft" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="5.796875"/>
-    <col customWidth="1" max="2" min="2" style="8" width="3.09765625"/>
-    <col customWidth="1" max="3" min="3" style="8" width="2.19921875"/>
-    <col customWidth="1" max="4" min="4" style="5" width="37.796875"/>
-    <col customWidth="1" max="6" min="5" style="5" width="23.69921875"/>
-    <col customWidth="1" max="7" min="7" style="12" width="12.59765625"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="18" r="1" s="1" spans="1:7" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="2" spans="1:7">
+    <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="D1" s="4" t="inlineStr">
+        <is>
+          <t>Question</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Right Answer</t>
+        </is>
+      </c>
+      <c r="F1" s="10" t="inlineStr">
+        <is>
+          <t>Wrong Answer</t>
+        </is>
+      </c>
+      <c r="G1" s="11" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>1072</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>9</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D2" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+        </is>
+      </c>
+      <c r="E2" s="9" t="inlineStr">
+        <is>
+          <t>here</t>
+        </is>
       </c>
       <c r="F2" s="9" t="n"/>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="3" spans="1:7">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>1073</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are focused on here and *****</t>
+        </is>
+      </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>now</t>
+        </is>
       </c>
       <c r="F3" s="9" t="n"/>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="4" spans="1:7">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>1074</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D4" s="6" t="inlineStr">
+        <is>
+          <t>Toddlers live in the present moment. They are f***** on here and now</t>
+        </is>
+      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>focused</t>
+        </is>
       </c>
       <c r="F4" s="6" t="n"/>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="5" spans="1:7">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>1075</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>Absorbent Mind - Toddlers pick things up *****lessly (as a sponge)</t>
+        </is>
+      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>effortlessly</t>
+        </is>
       </c>
       <c r="F5" s="6" t="n"/>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="44.4" r="6" spans="1:7">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="44.4" customHeight="1">
       <c r="A6" t="n">
         <v>1076</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="7" spans="1:7">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, e***** them to take on tasks with eagerness and capability</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>encourage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="41.4" customHeight="1">
       <c r="A7" t="n">
         <v>1077</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="8" spans="1:7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>take</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="41.4" customHeight="1">
       <c r="A8" t="n">
         <v>1078</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="9" spans="1:7">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D8" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+        </is>
+      </c>
+      <c r="E8" s="5" t="inlineStr">
+        <is>
+          <t>bad</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="41.4" customHeight="1">
       <c r="A9" t="n">
         <v>1079</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="10" spans="1:7">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are innocent and don't have bad means. They are simply impulsive, following ***** every urge</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="41.4" customHeight="1">
       <c r="A10" t="n">
         <v>1080</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="11" spans="1:7">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>hold</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="41.4" customHeight="1">
       <c r="A11" t="n">
         <v>1081</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="41.4" r="12" spans="1:7">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold g*****s. They are amazingly forgiving and go back to their cheerfulness</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>grudges</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="41.4" customHeight="1">
       <c r="A12" t="n">
         <v>1082</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="13" spans="1:7">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers don't hold grudges. They are amazingly forgiving and go back to ***** cheerfulness</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>their</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>1083</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="27.6" r="14" spans="1:7">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they m***** without mind games</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>1084</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are authentic. They say what they mean without m***** games</t>
+        </is>
+      </c>
+      <c r="E14" s="5" t="inlineStr">
+        <is>
+          <t>mind</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>200817</t>
+        </is>
+      </c>
+    </row>
+    <row r="15"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule priority="3" type="colorScale">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -890,7 +901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule priority="2" type="colorScale">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -902,7 +913,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule priority="1" type="colorScale">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -913,7 +924,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,21 +532,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
+    <col width="5.81640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.6328125" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -518,7 +586,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.6" customHeight="1">
+    <row r="2" ht="27.65" customHeight="1">
       <c r="A2" t="n">
         <v>1072</v>
       </c>
@@ -547,7 +615,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.6" customHeight="1">
+    <row r="3" ht="27.65" customHeight="1">
       <c r="A3" t="n">
         <v>1073</v>
       </c>
@@ -576,7 +644,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.6" customHeight="1">
+    <row r="4" ht="27.65" customHeight="1">
       <c r="A4" t="n">
         <v>1074</v>
       </c>
@@ -605,7 +673,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.6" customHeight="1">
+    <row r="5" ht="27.65" customHeight="1">
       <c r="A5" t="n">
         <v>1075</v>
       </c>
@@ -830,7 +898,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.6" customHeight="1">
+    <row r="13" ht="27.65" customHeight="1">
       <c r="A13" t="n">
         <v>1083</v>
       </c>
@@ -858,7 +926,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.6" customHeight="1">
+    <row r="14" ht="27.65" customHeight="1">
       <c r="A14" t="n">
         <v>1084</v>
       </c>
@@ -886,7 +954,90 @@
         </is>
       </c>
     </row>
-    <row r="15"/>
+    <row r="15" ht="43.5" customHeight="1">
+      <c r="D15" s="5" t="inlineStr">
+        <is>
+          <t>When toddlers say "*****", they begin to realize that their identity is separate from their parents</t>
+        </is>
+      </c>
+      <c r="E15" s="5" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="43.5" customHeight="1">
+      <c r="D16" s="5" t="inlineStr">
+        <is>
+          <t>When toddlers say "no", they begin to realize that their identity is separate ***** their parents</t>
+        </is>
+      </c>
+      <c r="E16" s="5" t="inlineStr">
+        <is>
+          <t>from</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="43.5" customHeight="1">
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>When toddlers say "no", they begin to realize that their identity is separate from their *****</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>parents</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="29" customHeight="1">
+      <c r="D18" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need to m*****, explore and discover the world around them</t>
+        </is>
+      </c>
+      <c r="E18" s="5" t="inlineStr">
+        <is>
+          <t>move</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="29" customHeight="1">
+      <c r="D19" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need to move, e***** and discover the world around them</t>
+        </is>
+      </c>
+      <c r="E19" s="5" t="inlineStr">
+        <is>
+          <t>explore</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="29" customHeight="1">
+      <c r="D20" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need to move, explore and d***** the world around them</t>
+        </is>
+      </c>
+      <c r="E20" s="5" t="inlineStr">
+        <is>
+          <t>discover</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="29" customHeight="1">
+      <c r="D21" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need to move, explore and discover the world ***** them</t>
+        </is>
+      </c>
+      <c r="E21" s="5" t="inlineStr">
+        <is>
+          <t>around</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,14 +18,14 @@
   <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
       <color theme="0"/>
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,21 +464,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
   <cols>
-    <col width="5.81640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="3.08984375" customWidth="1" style="8" min="2" max="2"/>
-    <col width="2.1796875" customWidth="1" style="8" min="3" max="3"/>
-    <col width="37.81640625" customWidth="1" style="5" min="4" max="4"/>
-    <col width="23.7265625" customWidth="1" style="5" min="5" max="6"/>
-    <col width="12.6328125" customWidth="1" style="12" min="7" max="7"/>
+    <col width="5.796875" customWidth="1" style="3" min="1" max="1"/>
+    <col width="3.09765625" customWidth="1" style="8" min="2" max="2"/>
+    <col width="2.19921875" customWidth="1" style="8" min="3" max="3"/>
+    <col width="37.796875" customWidth="1" style="5" min="4" max="4"/>
+    <col width="23.69921875" customWidth="1" style="5" min="5" max="6"/>
+    <col width="12.59765625" customWidth="1" style="12" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customFormat="1" customHeight="1" s="1" thickBot="1">
@@ -586,7 +518,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="27.65" customHeight="1">
+    <row r="2" ht="27.6" customHeight="1">
       <c r="A2" t="n">
         <v>1072</v>
       </c>
@@ -615,7 +547,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="27.65" customHeight="1">
+    <row r="3" ht="27.6" customHeight="1">
       <c r="A3" t="n">
         <v>1073</v>
       </c>
@@ -644,7 +576,7 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="27.65" customHeight="1">
+    <row r="4" ht="27.6" customHeight="1">
       <c r="A4" t="n">
         <v>1074</v>
       </c>
@@ -673,7 +605,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="27.65" customHeight="1">
+    <row r="5" ht="27.6" customHeight="1">
       <c r="A5" t="n">
         <v>1075</v>
       </c>
@@ -898,7 +830,7 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="27.65" customHeight="1">
+    <row r="13" ht="27.6" customHeight="1">
       <c r="A13" t="n">
         <v>1083</v>
       </c>
@@ -926,7 +858,7 @@
         </is>
       </c>
     </row>
-    <row r="14" ht="27.65" customHeight="1">
+    <row r="14" ht="27.6" customHeight="1">
       <c r="A14" t="n">
         <v>1084</v>
       </c>
@@ -955,6 +887,17 @@
       </c>
     </row>
     <row r="15" ht="43.5" customHeight="1">
+      <c r="A15" t="n">
+        <v>1216</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
           <t>When toddlers say "*****", they begin to realize that their identity is separate from their parents</t>
@@ -965,8 +908,24 @@
           <t>no</t>
         </is>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="43.5" customHeight="1">
+      <c r="A16" t="n">
+        <v>1217</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
           <t>When toddlers say "no", they begin to realize that their identity is separate ***** their parents</t>
@@ -977,8 +936,24 @@
           <t>from</t>
         </is>
       </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
     </row>
     <row r="17" ht="43.5" customHeight="1">
+      <c r="A17" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
           <t>When toddlers say "no", they begin to realize that their identity is separate from their *****</t>
@@ -989,8 +964,24 @@
           <t>parents</t>
         </is>
       </c>
-    </row>
-    <row r="18" ht="29" customHeight="1">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="28.95" customHeight="1">
+      <c r="A18" t="n">
+        <v>1219</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
           <t>Toddlers need to m*****, explore and discover the world around them</t>
@@ -1001,8 +992,24 @@
           <t>move</t>
         </is>
       </c>
-    </row>
-    <row r="19" ht="29" customHeight="1">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="28.95" customHeight="1">
+      <c r="A19" t="n">
+        <v>1220</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
           <t>Toddlers need to move, e***** and discover the world around them</t>
@@ -1013,8 +1020,24 @@
           <t>explore</t>
         </is>
       </c>
-    </row>
-    <row r="20" ht="29" customHeight="1">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="28.95" customHeight="1">
+      <c r="A20" t="n">
+        <v>1221</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
           <t>Toddlers need to move, explore and d***** the world around them</t>
@@ -1025,8 +1048,24 @@
           <t>discover</t>
         </is>
       </c>
-    </row>
-    <row r="21" ht="29" customHeight="1">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="28.95" customHeight="1">
+      <c r="A21" t="n">
+        <v>1222</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
           <t>Toddlers need to move, explore and discover the world ***** them</t>
@@ -1037,7 +1076,69 @@
           <t>around</t>
         </is>
       </c>
-    </row>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="27.6" customHeight="1">
+      <c r="A22" t="n">
+        <v>1223</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D22" s="5" t="inlineStr">
+        <is>
+          <t>We need set up our spaces for their safely e*****</t>
+        </is>
+      </c>
+      <c r="E22" s="5" t="inlineStr">
+        <is>
+          <t>explorings</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="27.6" customHeight="1">
+      <c r="A23" t="n">
+        <v>1224</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D23" s="5" t="inlineStr">
+        <is>
+          <t>We m***** try to involve all the toddlers' senses</t>
+        </is>
+      </c>
+      <c r="E23" s="5" t="inlineStr">
+        <is>
+          <t>must</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>200912</t>
+        </is>
+      </c>
+    </row>
+    <row r="24"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1138,7 +1138,91 @@
         </is>
       </c>
     </row>
-    <row r="24"/>
+    <row r="24" ht="27.6" customHeight="1">
+      <c r="A24" t="n">
+        <v>1252</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D24" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need c***** limits, otherwise they get confused</t>
+        </is>
+      </c>
+      <c r="E24" s="5" t="inlineStr">
+        <is>
+          <t>consistent</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="27.6" customHeight="1">
+      <c r="A25" t="n">
+        <v>1253</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D25" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need consistent limits, otherwise they get *****</t>
+        </is>
+      </c>
+      <c r="E25" s="5" t="inlineStr">
+        <is>
+          <t>confused</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="27.6" customHeight="1">
+      <c r="A26" t="n">
+        <v>1254</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>Parents need to be calm l***** for the toddlers</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>leader</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>200914</t>
+        </is>
+      </c>
+    </row>
+    <row r="27"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1222,7 +1222,119 @@
         </is>
       </c>
     </row>
-    <row r="27"/>
+    <row r="27" ht="41.4" customHeight="1">
+      <c r="A27" t="n">
+        <v>1259</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D27" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need o***** and consistency. It helps them understand and know what to expect</t>
+        </is>
+      </c>
+      <c r="E27" s="5" t="inlineStr">
+        <is>
+          <t>order</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>200919</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="27.6" customHeight="1">
+      <c r="A28" t="n">
+        <v>1260</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need order and c*****. It helps them understand and know what to expect</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>consistency</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>200919</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="27.6" customHeight="1">
+      <c r="A29" t="n">
+        <v>1261</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need order and consistency. It helps them u***** and know what to expect</t>
+        </is>
+      </c>
+      <c r="E29" s="5" t="inlineStr">
+        <is>
+          <t>understand</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>200919</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="41.4" customHeight="1">
+      <c r="A30" t="n">
+        <v>1262</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers need order and consistency. It helps them understand and know what to e*****</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>expect</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>200919</t>
+        </is>
+      </c>
+    </row>
+    <row r="31"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -464,11 +464,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -1334,7 +1334,119 @@
         </is>
       </c>
     </row>
-    <row r="31"/>
+    <row r="31" ht="27.6" customHeight="1">
+      <c r="A31" t="n">
+        <v>1286</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D31" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are not giving us a ***** time - they are having a hard time!</t>
+        </is>
+      </c>
+      <c r="E31" s="5" t="inlineStr">
+        <is>
+          <t>hard</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="27.6" customHeight="1">
+      <c r="A32" t="n">
+        <v>1287</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D32" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are not giving us a hard time - they are ***** a hard time!</t>
+        </is>
+      </c>
+      <c r="E32" s="5" t="inlineStr">
+        <is>
+          <t>having</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="27.6" customHeight="1">
+      <c r="A33" t="n">
+        <v>1288</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D33" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are impulsive. Their self-control and decision-making ***** are still developing</t>
+        </is>
+      </c>
+      <c r="E33" s="5" t="inlineStr">
+        <is>
+          <t>abilities</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="41.4" customHeight="1">
+      <c r="A34" t="n">
+        <v>1289</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D34" s="5" t="inlineStr">
+        <is>
+          <t>Toddlers are impulsive. Their self-control and decision-making abilities are ***** developing</t>
+        </is>
+      </c>
+      <c r="E34" s="5" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>200923</t>
+        </is>
+      </c>
+    </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -1446,7 +1514,6 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
@@ -1514,6 +1446,7 @@
         </is>
       </c>
     </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myq\Questions\Life\Parenthood\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D904E046-3712-491E-B1FB-BBD4FE49D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEB6606-71F9-4519-842F-3E41B7009A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,6 +73,9 @@
     <t>effortlessly</t>
   </si>
   <si>
+    <t>Accessible homes for toddlers, *****cou***** them to take on tasks with eagerness and capability</t>
+  </si>
+  <si>
     <t>encourage</t>
   </si>
   <si>
@@ -121,9 +124,6 @@
     <t>mind</t>
   </si>
   <si>
-    <t>When toddlers say "*****", they begin to realize that their identity is separate from their parents</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -253,7 +253,7 @@
     <t>still</t>
   </si>
   <si>
-    <t>Accessible homes for toddlers, *****cou***** them to take on tasks with eagerness and capability</t>
+    <t>When toddlers say "n*****", they begin to realize that their identity is separate from their parents</t>
   </si>
 </sst>
 </file>
@@ -716,8 +716,8 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -848,10 +848,10 @@
         <v>7</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -868,10 +868,10 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -888,10 +888,10 @@
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -908,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -948,10 +948,10 @@
         <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -968,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -988,10 +988,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1008,10 +1008,10 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>34</v>

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -464,7 +532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -1446,7 +1514,6 @@
         </is>
       </c>
     </row>
-    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
@@ -1514,6 +1446,7 @@
         </is>
       </c>
     </row>
+    <row r="35"/>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="colorScale" priority="3">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -194,6 +194,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -532,7 +600,7 @@
       </c>
       <c r="D2" s="6" t="inlineStr">
         <is>
-          <t>Toddlers live in the present moment. They are focused on ***** and now</t>
+          <t>Toddlers live in the present moment. They are focused on **** and now</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
@@ -561,7 +629,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Toddlers live in the present moment. They are focused on here and *****</t>
+          <t>Toddlers live in the present moment. They are focused on here and ***</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
@@ -590,7 +658,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Toddlers live in the present moment. They are f***** on here and now</t>
+          <t>Toddlers live in the present moment. They are f******* on here and now</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -676,7 +744,7 @@
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>Accessible homes for toddlers, encourage them to ***** on tasks with eagerness and capability.</t>
+          <t>Accessible homes for toddlers, encourage them to **** on tasks with eagerness and capability.</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
@@ -704,7 +772,7 @@
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are innocent and don't have b***** means. They are simply impulsive, following their every urge</t>
+          <t>Toddlers are innocent and don't have b** means. They are simply impulsive, following their every urge</t>
         </is>
       </c>
       <c r="E8" s="5" t="inlineStr">
@@ -760,7 +828,7 @@
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>Toddlers don't ***** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
+          <t>Toddlers don't **** grudges. They are amazingly forgiving and go back to their cheerfulness</t>
         </is>
       </c>
       <c r="E10" s="5" t="inlineStr">
@@ -844,7 +912,7 @@
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are authentic. They say what they m***** without mind games</t>
+          <t>Toddlers are authentic. They say what they m*** without mind games</t>
         </is>
       </c>
       <c r="E13" s="5" t="inlineStr">
@@ -872,7 +940,7 @@
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are authentic. They say what they mean without m***** games</t>
+          <t>Toddlers are authentic. They say what they mean without m*** games</t>
         </is>
       </c>
       <c r="E14" s="5" t="inlineStr">
@@ -900,7 +968,7 @@
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>When toddlers say "n*****", they begin to realize that their identity is separate from their parents</t>
+          <t>When toddlers say "n*", they begin to realize that their identity is separate from their parents</t>
         </is>
       </c>
       <c r="E15" s="5" t="inlineStr">
@@ -928,7 +996,7 @@
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>When toddlers say "no", they begin to realize that their identity is separate ***** their parents</t>
+          <t>When toddlers say "no", they begin to realize that their identity is separate **** their parents</t>
         </is>
       </c>
       <c r="E16" s="5" t="inlineStr">
@@ -956,7 +1024,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>When toddlers say "no", they begin to realize that their identity is separate from their *****</t>
+          <t>W****** toddlers say "no", they begin to realize that their identity is separate from their *********</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -984,7 +1052,7 @@
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to m*****, explore and discover the world around them</t>
+          <t>Toddlers need to m***, explore and discover the world around them</t>
         </is>
       </c>
       <c r="E18" s="5" t="inlineStr">
@@ -1012,7 +1080,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, e***** and discover the world around them</t>
+          <t>Toddlers need to move, e******* and discover the world around them</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1040,7 +1108,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, explore and d***** the world around them</t>
+          <t>Toddlers need to move, explore and d********* the world around them</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1068,7 +1136,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, explore and discover the world ***** them</t>
+          <t>Toddlers need to move, explore and discover the world ******* them</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1096,7 +1164,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>We need set up our spaces for their safely e*****</t>
+          <t>We need set up our spaces for their safely e*****************</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1124,7 +1192,7 @@
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>We m***** try to involve all the toddlers' senses</t>
+          <t>We m*** try to involve all the toddlers' senses</t>
         </is>
       </c>
       <c r="E23" s="5" t="inlineStr">
@@ -1152,7 +1220,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need c***** limits, otherwise they get confused</t>
+          <t>Toddlers need c***************** limits, otherwise they get confused</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1180,7 +1248,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need consistent limits, otherwise they get *****</t>
+          <t>Toddlers need consistent limits, otherwise they get **************</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1208,7 +1276,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Parents need to be calm l***** for the toddlers</t>
+          <t>Parents need to be calm l******* for the toddlers</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1236,7 +1304,7 @@
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need o***** and consistency. It helps them understand and know what to expect</t>
+          <t>Toddlers need o**** and consistency. It helps them understand and know what to expect</t>
         </is>
       </c>
       <c r="E27" s="5" t="inlineStr">
@@ -1264,7 +1332,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need order and c*****. It helps them understand and know what to expect</t>
+          <t>Toddlers need order and c***************. It helps them understand and know what to expect</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1292,7 +1360,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need order and consistency. It helps them u***** and know what to expect</t>
+          <t>Toddlers need order and consistency. It helps them u***************** and know what to expect</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1348,7 +1416,7 @@
       </c>
       <c r="D31" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are not giving us a ***** time - they are having a hard time!</t>
+          <t>Toddlers are not giving us a **** time - they are having a hard time!</t>
         </is>
       </c>
       <c r="E31" s="5" t="inlineStr">
@@ -1376,7 +1444,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are not giving us a hard time - they are ***** a hard time!</t>
+          <t>Toddlers are not giving us a hard time - they are ******* a hard time!</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1404,7 +1472,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are impulsive. Their self-control and decision-making ***** are still developing</t>
+          <t>Toddlers are impulsive. Their self-control and decision-making ***************** are still developing</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">

--- a/Questions/Life/Parenthood/Toddler.xlsx
+++ b/Questions/Life/Parenthood/Toddler.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -194,74 +194,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -535,8 +467,8 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -658,7 +590,7 @@
       </c>
       <c r="D4" s="6" t="inlineStr">
         <is>
-          <t>Toddlers live in the present moment. They are f******* on here and now</t>
+          <t>Toddlers live in the present moment. They are f***** on here and now</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
@@ -1024,7 +956,7 @@
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>W****** toddlers say "no", they begin to realize that their identity is separate from their *********</t>
+          <t>When toddlers say "no", they begin to realize that their identity is separate from their *****</t>
         </is>
       </c>
       <c r="E17" s="5" t="inlineStr">
@@ -1080,7 +1012,7 @@
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, e******* and discover the world around them</t>
+          <t>Toddlers need to move, e***** and discover the world around them</t>
         </is>
       </c>
       <c r="E19" s="5" t="inlineStr">
@@ -1108,7 +1040,7 @@
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, explore and d********* the world around them</t>
+          <t>Toddlers need to move, explore and d***** the world around them</t>
         </is>
       </c>
       <c r="E20" s="5" t="inlineStr">
@@ -1136,7 +1068,7 @@
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need to move, explore and discover the world ******* them</t>
+          <t>Toddlers need to move, explore and discover the world ***** them</t>
         </is>
       </c>
       <c r="E21" s="5" t="inlineStr">
@@ -1164,7 +1096,7 @@
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>We need set up our spaces for their safely e*****************</t>
+          <t>We need set up our spaces for their safely e*****</t>
         </is>
       </c>
       <c r="E22" s="5" t="inlineStr">
@@ -1220,7 +1152,7 @@
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need c***************** limits, otherwise they get confused</t>
+          <t>Toddlers need c***** limits, otherwise they get confused</t>
         </is>
       </c>
       <c r="E24" s="5" t="inlineStr">
@@ -1248,7 +1180,7 @@
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need consistent limits, otherwise they get **************</t>
+          <t>Toddlers need consistent limits, otherwise they get *****</t>
         </is>
       </c>
       <c r="E25" s="5" t="inlineStr">
@@ -1276,7 +1208,7 @@
       </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Parents need to be calm l******* for the toddlers</t>
+          <t>Parents need to be calm l***** for the toddlers</t>
         </is>
       </c>
       <c r="E26" s="5" t="inlineStr">
@@ -1332,7 +1264,7 @@
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need order and c***************. It helps them understand and know what to expect</t>
+          <t>Toddlers need order and c*****. It helps them understand and know what to expect</t>
         </is>
       </c>
       <c r="E28" s="5" t="inlineStr">
@@ -1360,7 +1292,7 @@
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>Toddlers need order and consistency. It helps them u***************** and know what to expect</t>
+          <t>Toddlers need order and consistency. It helps them u***** and know what to expect</t>
         </is>
       </c>
       <c r="E29" s="5" t="inlineStr">
@@ -1444,7 +1376,7 @@
       </c>
       <c r="D32" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are not giving us a hard time - they are ******* a hard time!</t>
+          <t>Toddlers are not giving us a hard time - they are ***** a hard time!</t>
         </is>
       </c>
       <c r="E32" s="5" t="inlineStr">
@@ -1472,7 +1404,7 @@
       </c>
       <c r="D33" s="5" t="inlineStr">
         <is>
-          <t>Toddlers are impulsive. Their self-control and decision-making ***************** are still developing</t>
+          <t>Toddlers are impulsive. Their self-control and decision-making ***** are still developing</t>
         </is>
       </c>
       <c r="E33" s="5" t="inlineStr">
